--- a/FrameWork/data/Books.xlsx
+++ b/FrameWork/data/Books.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AC30FC-36F5-4FA5-9AF5-52D985696C2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D11EBD-77B2-40CB-886E-84280C3A74F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckIssuseDate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -39,6 +40,21 @@
   </si>
   <si>
     <t>Enter</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sdvg</t>
+  </si>
+  <si>
+    <t>IssuseDate</t>
+  </si>
+  <si>
+    <t>JUL 14,2017</t>
   </si>
 </sst>
 </file>
@@ -358,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -397,12 +413,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623696BA-6B6A-4377-98A3-2DD72808115F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FrameWork/data/Books.xlsx
+++ b/FrameWork/data/Books.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D11EBD-77B2-40CB-886E-84280C3A74F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961C4B1-485B-4772-B31C-979DEB3AB0DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,16 @@
     <t>IssuseDate</t>
   </si>
   <si>
-    <t>JUL 14,2017</t>
+    <t>Jul 14, 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-24009]mmmm\ dd\,\ yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,12 +89,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,37 +474,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623696BA-6B6A-4377-98A3-2DD72808115F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="13.77734375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>